--- a/US-Canada_for_Python.xlsx
+++ b/US-Canada_for_Python.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizne\OneDrive\Desktop\Regression Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizne\OneDrive\Desktop\Fall 2021\Regression Project\Our Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B15E1B-6910-4DC3-9AFD-3CE35E434B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232B1C5C-AB52-4B34-AD80-2C1C4F54121B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="864" windowWidth="19536" windowHeight="11496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -61,31 +60,13 @@
     <t>CAN_Ln_VOL</t>
   </si>
   <si>
-    <t>Capitalgoods</t>
-  </si>
-  <si>
-    <t>Consumergoods</t>
-  </si>
-  <si>
-    <t>Intermediategoods</t>
-  </si>
-  <si>
-    <t>Rawmaterials</t>
-  </si>
-  <si>
     <t>Chemicals</t>
   </si>
   <si>
     <t>Fuels</t>
   </si>
   <si>
-    <t>MachandElec</t>
-  </si>
-  <si>
     <t>Metals</t>
-  </si>
-  <si>
-    <t>PlasticorRubber</t>
   </si>
   <si>
     <t>Transportation</t>
@@ -125,6 +106,24 @@
   </si>
   <si>
     <t>CAN_Y_US</t>
+  </si>
+  <si>
+    <t>Capital Goods</t>
+  </si>
+  <si>
+    <t>Consumer Goods</t>
+  </si>
+  <si>
+    <t>Intermediate Goods</t>
+  </si>
+  <si>
+    <t>Raw Materials</t>
+  </si>
+  <si>
+    <t>Commodities</t>
+  </si>
+  <si>
+    <t>Mechanical and Electrical Goods</t>
   </si>
 </sst>
 </file>
@@ -417,8 +416,8 @@
   </sheetPr>
   <dimension ref="A1:AO969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -436,16 +435,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -460,19 +459,19 @@
         <v>6</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>7</v>
@@ -513,7 +512,7 @@
         <v>54985985.060000002</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4">
         <v>1994</v>
@@ -537,7 +536,7 @@
         <v>7.74</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L2" s="4">
         <v>1</v>
@@ -590,7 +589,7 @@
         <v>30366007.190000001</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
         <v>1994</v>
@@ -614,7 +613,7 @@
         <v>7.48</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L3" s="4">
         <v>2</v>
@@ -667,7 +666,7 @@
         <v>18502305.109999999</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4">
         <v>1994</v>
@@ -691,7 +690,7 @@
         <v>7.27</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L4" s="4">
         <v>3</v>
@@ -744,7 +743,7 @@
         <v>6173198.21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4">
         <v>1994</v>
@@ -768,7 +767,7 @@
         <v>6.79</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L5" s="4">
         <v>4</v>
@@ -821,7 +820,7 @@
         <v>7245108.2599999998</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4">
         <v>1994</v>
@@ -845,7 +844,7 @@
         <v>6.86</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L6" s="4">
         <v>5</v>
@@ -898,7 +897,7 @@
         <v>1272731.78</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4">
         <v>1994</v>
@@ -922,7 +921,7 @@
         <v>6.1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L7" s="4">
         <v>6</v>
@@ -967,7 +966,7 @@
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
     </row>
-    <row r="8" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>17465467.899999999</v>
       </c>
@@ -975,7 +974,7 @@
         <v>37309273.090000004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4">
         <v>1994</v>
@@ -999,7 +998,7 @@
         <v>7.57</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L8" s="4">
         <v>7</v>
@@ -1052,7 +1051,7 @@
         <v>7393561.4299999997</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4">
         <v>1994</v>
@@ -1076,7 +1075,7 @@
         <v>6.87</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L9" s="4">
         <v>8</v>
@@ -1129,7 +1128,7 @@
         <v>5753806.46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4">
         <v>1994</v>
@@ -1153,7 +1152,7 @@
         <v>6.76</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L10" s="4">
         <v>9</v>
@@ -1206,7 +1205,7 @@
         <v>26560878.5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4">
         <v>1994</v>
@@ -1230,7 +1229,7 @@
         <v>7.42</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L11" s="4">
         <v>10</v>
@@ -1283,7 +1282,7 @@
         <v>61331291.880000003</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4">
         <v>1995</v>
@@ -1307,7 +1306,7 @@
         <v>7.79</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L12" s="4">
         <v>1</v>
@@ -1360,7 +1359,7 @@
         <v>32118684.73</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4">
         <v>1995</v>
@@ -1384,7 +1383,7 @@
         <v>7.51</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L13" s="4">
         <v>2</v>
@@ -1437,7 +1436,7 @@
         <v>21065303.120000001</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4">
         <v>1995</v>
@@ -1461,7 +1460,7 @@
         <v>7.32</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L14" s="4">
         <v>3</v>
@@ -1514,7 +1513,7 @@
         <v>7029319.5300000003</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4">
         <v>1995</v>
@@ -1538,7 +1537,7 @@
         <v>6.85</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L15" s="4">
         <v>4</v>
@@ -1591,7 +1590,7 @@
         <v>7888556.8300000001</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D16" s="4">
         <v>1995</v>
@@ -1615,7 +1614,7 @@
         <v>6.9</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L16" s="4">
         <v>5</v>
@@ -1668,7 +1667,7 @@
         <v>1475262.98</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4">
         <v>1995</v>
@@ -1692,7 +1691,7 @@
         <v>6.17</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L17" s="4">
         <v>6</v>
@@ -1737,7 +1736,7 @@
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
     </row>
-    <row r="18" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>20553711.100000001</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>42062491.649999999</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4">
         <v>1995</v>
@@ -1769,7 +1768,7 @@
         <v>7.62</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L18" s="4">
         <v>7</v>
@@ -1822,7 +1821,7 @@
         <v>8609531.7300000004</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D19" s="4">
         <v>1995</v>
@@ -1846,7 +1845,7 @@
         <v>6.93</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L19" s="4">
         <v>8</v>
@@ -1899,7 +1898,7 @@
         <v>6441453.7000000002</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D20" s="4">
         <v>1995</v>
@@ -1923,7 +1922,7 @@
         <v>6.81</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L20" s="4">
         <v>9</v>
@@ -1976,7 +1975,7 @@
         <v>28382043.149999999</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D21" s="4">
         <v>1995</v>
@@ -2000,7 +1999,7 @@
         <v>7.45</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L21" s="4">
         <v>10</v>
@@ -2053,7 +2052,7 @@
         <v>63883384.350000001</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D22" s="4">
         <v>1996</v>
@@ -2077,7 +2076,7 @@
         <v>7.81</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L22" s="4">
         <v>1</v>
@@ -2130,7 +2129,7 @@
         <v>34126486.939999998</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4">
         <v>1996</v>
@@ -2154,7 +2153,7 @@
         <v>7.53</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L23" s="4">
         <v>2</v>
@@ -2207,7 +2206,7 @@
         <v>22396783.440000001</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D24" s="4">
         <v>1996</v>
@@ -2231,7 +2230,7 @@
         <v>7.35</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L24" s="4">
         <v>3</v>
@@ -2284,7 +2283,7 @@
         <v>6771576.8099999996</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4">
         <v>1996</v>
@@ -2308,7 +2307,7 @@
         <v>6.83</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L25" s="4">
         <v>4</v>
@@ -2361,7 +2360,7 @@
         <v>8537461.4399999995</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4">
         <v>1996</v>
@@ -2385,7 +2384,7 @@
         <v>6.93</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L26" s="4">
         <v>5</v>
@@ -2438,7 +2437,7 @@
         <v>1903175.04</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D27" s="4">
         <v>1996</v>
@@ -2462,7 +2461,7 @@
         <v>6.28</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L27" s="4">
         <v>6</v>
@@ -2507,7 +2506,7 @@
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
     </row>
-    <row r="28" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>22648248.32</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>44221730.82</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D28" s="4">
         <v>1996</v>
@@ -2539,7 +2538,7 @@
         <v>7.65</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L28" s="4">
         <v>7</v>
@@ -2592,7 +2591,7 @@
         <v>8695963.1300000008</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D29" s="4">
         <v>1996</v>
@@ -2616,7 +2615,7 @@
         <v>6.94</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L29" s="4">
         <v>8</v>
@@ -2669,7 +2668,7 @@
         <v>7026508.4199999999</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D30" s="4">
         <v>1996</v>
@@ -2693,7 +2692,7 @@
         <v>6.85</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L30" s="4">
         <v>9</v>
@@ -2746,7 +2745,7 @@
         <v>29382048.399999999</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D31" s="4">
         <v>1996</v>
@@ -2770,7 +2769,7 @@
         <v>7.47</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L31" s="4">
         <v>10</v>
@@ -2823,7 +2822,7 @@
         <v>72107140.290000007</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D32" s="4">
         <v>1997</v>
@@ -2847,7 +2846,7 @@
         <v>7.86</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L32" s="4">
         <v>1</v>
@@ -2900,7 +2899,7 @@
         <v>39318229.829999998</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D33" s="4">
         <v>1997</v>
@@ -2924,7 +2923,7 @@
         <v>7.59</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L33" s="4">
         <v>2</v>
@@ -2977,7 +2976,7 @@
         <v>25864028.890000001</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D34" s="4">
         <v>1997</v>
@@ -3001,7 +3000,7 @@
         <v>7.41</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L34" s="4">
         <v>3</v>
@@ -3054,7 +3053,7 @@
         <v>7464074.9800000004</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D35" s="4">
         <v>1997</v>
@@ -3078,7 +3077,7 @@
         <v>6.87</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L35" s="4">
         <v>4</v>
@@ -3131,7 +3130,7 @@
         <v>9560102.9299999997</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="4">
         <v>1997</v>
@@ -3155,7 +3154,7 @@
         <v>6.98</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L36" s="4">
         <v>5</v>
@@ -3208,7 +3207,7 @@
         <v>2436302.34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D37" s="4">
         <v>1997</v>
@@ -3232,7 +3231,7 @@
         <v>6.39</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L37" s="4">
         <v>6</v>
@@ -3277,7 +3276,7 @@
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
     </row>
-    <row r="38" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>24073051.140000001</v>
       </c>
@@ -3285,7 +3284,7 @@
         <v>49725028.350000001</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D38" s="4">
         <v>1997</v>
@@ -3309,7 +3308,7 @@
         <v>7.7</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L38" s="4">
         <v>7</v>
@@ -3362,7 +3361,7 @@
         <v>10363078.82</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D39" s="4">
         <v>1997</v>
@@ -3386,7 +3385,7 @@
         <v>7.02</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L39" s="4">
         <v>8</v>
@@ -3439,7 +3438,7 @@
         <v>7969872.9000000004</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D40" s="4">
         <v>1997</v>
@@ -3463,7 +3462,7 @@
         <v>6.9</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L40" s="4">
         <v>9</v>
@@ -3516,7 +3515,7 @@
         <v>33927932.450000003</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D41" s="4">
         <v>1997</v>
@@ -3540,7 +3539,7 @@
         <v>7.53</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L41" s="4">
         <v>10</v>
@@ -3593,7 +3592,7 @@
         <v>74916779.019999996</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D42" s="4">
         <v>1998</v>
@@ -3617,7 +3616,7 @@
         <v>7.87</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L42" s="4">
         <v>1</v>
@@ -3670,7 +3669,7 @@
         <v>40803748.979999997</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D43" s="4">
         <v>1998</v>
@@ -3694,7 +3693,7 @@
         <v>7.61</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L43" s="4">
         <v>2</v>
@@ -3747,7 +3746,7 @@
         <v>26435195.190000001</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D44" s="4">
         <v>1998</v>
@@ -3771,7 +3770,7 @@
         <v>7.42</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L44" s="4">
         <v>3</v>
@@ -3824,7 +3823,7 @@
         <v>7414066.6500000004</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D45" s="4">
         <v>1998</v>
@@ -3848,7 +3847,7 @@
         <v>6.87</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L45" s="4">
         <v>4</v>
@@ -3901,7 +3900,7 @@
         <v>10063270.630000001</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="4">
         <v>1998</v>
@@ -3925,7 +3924,7 @@
         <v>7</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L46" s="4">
         <v>5</v>
@@ -3978,7 +3977,7 @@
         <v>2468822.27</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D47" s="4">
         <v>1998</v>
@@ -4002,7 +4001,7 @@
         <v>6.39</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L47" s="4">
         <v>6</v>
@@ -4047,7 +4046,7 @@
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
     </row>
-    <row r="48" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>26134461.440000001</v>
       </c>
@@ -4055,7 +4054,7 @@
         <v>51826546.689999998</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D48" s="4">
         <v>1998</v>
@@ -4079,7 +4078,7 @@
         <v>7.71</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L48" s="4">
         <v>7</v>
@@ -4132,7 +4131,7 @@
         <v>10494444.66</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D49" s="4">
         <v>1998</v>
@@ -4156,7 +4155,7 @@
         <v>7.02</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L49" s="4">
         <v>8</v>
@@ -4209,7 +4208,7 @@
         <v>8423674.6199999992</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D50" s="4">
         <v>1998</v>
@@ -4233,7 +4232,7 @@
         <v>6.93</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L50" s="4">
         <v>9</v>
@@ -4286,7 +4285,7 @@
         <v>34310642.030000001</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D51" s="4">
         <v>1998</v>
@@ -4310,7 +4309,7 @@
         <v>7.54</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L51" s="4">
         <v>10</v>
@@ -4363,7 +4362,7 @@
         <v>80869429.109999999</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D52" s="4">
         <v>1999</v>
@@ -4387,7 +4386,7 @@
         <v>7.91</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L52" s="4">
         <v>1</v>
@@ -4440,7 +4439,7 @@
         <v>43815662.729999997</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D53" s="4">
         <v>1999</v>
@@ -4464,7 +4463,7 @@
         <v>7.64</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L53" s="4">
         <v>2</v>
@@ -4517,7 +4516,7 @@
         <v>27599532.489999998</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D54" s="4">
         <v>1999</v>
@@ -4541,7 +4540,7 @@
         <v>7.44</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L54" s="4">
         <v>3</v>
@@ -4594,7 +4593,7 @@
         <v>7225366.75</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D55" s="4">
         <v>1999</v>
@@ -4618,7 +4617,7 @@
         <v>6.86</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L55" s="4">
         <v>4</v>
@@ -4671,7 +4670,7 @@
         <v>10869016.59</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="4">
         <v>1999</v>
@@ -4695,7 +4694,7 @@
         <v>7.04</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L56" s="4">
         <v>5</v>
@@ -4748,7 +4747,7 @@
         <v>2259983.62</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D57" s="4">
         <v>1999</v>
@@ -4772,7 +4771,7 @@
         <v>6.35</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L57" s="4">
         <v>6</v>
@@ -4817,7 +4816,7 @@
       <c r="AN57" s="3"/>
       <c r="AO57" s="3"/>
     </row>
-    <row r="58" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>28845629.440000001</v>
       </c>
@@ -4825,7 +4824,7 @@
         <v>55389892.609999999</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D58" s="4">
         <v>1999</v>
@@ -4849,7 +4848,7 @@
         <v>7.74</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L58" s="4">
         <v>7</v>
@@ -4902,7 +4901,7 @@
         <v>10970596.119999999</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D59" s="4">
         <v>1999</v>
@@ -4926,7 +4925,7 @@
         <v>7.04</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L59" s="4">
         <v>8</v>
@@ -4979,7 +4978,7 @@
         <v>9258647.3000000007</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D60" s="4">
         <v>1999</v>
@@ -5003,7 +5002,7 @@
         <v>6.97</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L60" s="4">
         <v>9</v>
@@ -5056,7 +5055,7 @@
         <v>37261529.340000004</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D61" s="4">
         <v>1999</v>
@@ -5080,7 +5079,7 @@
         <v>7.57</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L61" s="4">
         <v>10</v>
@@ -5133,7 +5132,7 @@
         <v>87662642.079999998</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D62" s="4">
         <v>2000</v>
@@ -5157,7 +5156,7 @@
         <v>7.94</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L62" s="4">
         <v>1</v>
@@ -5210,7 +5209,7 @@
         <v>48481746.119999997</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D63" s="4">
         <v>2000</v>
@@ -5234,7 +5233,7 @@
         <v>7.69</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L63" s="4">
         <v>2</v>
@@ -5287,7 +5286,7 @@
         <v>29789208.609999999</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D64" s="4">
         <v>2000</v>
@@ -5311,7 +5310,7 @@
         <v>7.47</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L64" s="4">
         <v>3</v>
@@ -5364,7 +5363,7 @@
         <v>7795668.7300000004</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D65" s="4">
         <v>2000</v>
@@ -5388,7 +5387,7 @@
         <v>6.89</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L65" s="4">
         <v>4</v>
@@ -5441,7 +5440,7 @@
         <v>11428734.07</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="4">
         <v>2000</v>
@@ -5465,7 +5464,7 @@
         <v>7.06</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L66" s="4">
         <v>5</v>
@@ -5518,7 +5517,7 @@
         <v>2824347.84</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D67" s="4">
         <v>2000</v>
@@ -5542,7 +5541,7 @@
         <v>6.45</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L67" s="4">
         <v>6</v>
@@ -5587,7 +5586,7 @@
       <c r="AN67" s="3"/>
       <c r="AO67" s="3"/>
     </row>
-    <row r="68" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>35705688.829999998</v>
       </c>
@@ -5595,7 +5594,7 @@
         <v>61712176.039999999</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D68" s="4">
         <v>2000</v>
@@ -5619,7 +5618,7 @@
         <v>7.79</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L68" s="4">
         <v>7</v>
@@ -5672,7 +5671,7 @@
         <v>13126761.1</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D69" s="4">
         <v>2000</v>
@@ -5696,7 +5695,7 @@
         <v>7.12</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L69" s="4">
         <v>8</v>
@@ -5749,7 +5748,7 @@
         <v>10085889.85</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D70" s="4">
         <v>2000</v>
@@ -5773,7 +5772,7 @@
         <v>7</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L70" s="4">
         <v>9</v>
@@ -5826,7 +5825,7 @@
         <v>37747758.140000001</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D71" s="4">
         <v>2000</v>
@@ -5850,7 +5849,7 @@
         <v>7.58</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L71" s="4">
         <v>10</v>
@@ -5903,7 +5902,7 @@
         <v>76536243.469999999</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D72" s="4">
         <v>2001</v>
@@ -5927,7 +5926,7 @@
         <v>7.88</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L72" s="4">
         <v>1</v>
@@ -5980,7 +5979,7 @@
         <v>45800844.380000003</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D73" s="4">
         <v>2001</v>
@@ -6004,7 +6003,7 @@
         <v>7.66</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L73" s="4">
         <v>2</v>
@@ -6057,7 +6056,7 @@
         <v>28197773.75</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D74" s="4">
         <v>2001</v>
@@ -6081,7 +6080,7 @@
         <v>7.45</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L74" s="4">
         <v>3</v>
@@ -6134,7 +6133,7 @@
         <v>7744758.1399999997</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D75" s="4">
         <v>2001</v>
@@ -6158,7 +6157,7 @@
         <v>6.89</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L75" s="4">
         <v>4</v>
@@ -6211,7 +6210,7 @@
         <v>11429495.98</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="4">
         <v>2001</v>
@@ -6235,7 +6234,7 @@
         <v>7.06</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L76" s="4">
         <v>5</v>
@@ -6288,7 +6287,7 @@
         <v>3630683.02</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D77" s="4">
         <v>2001</v>
@@ -6312,7 +6311,7 @@
         <v>6.56</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L77" s="4">
         <v>6</v>
@@ -6357,7 +6356,7 @@
       <c r="AN77" s="3"/>
       <c r="AO77" s="3"/>
     </row>
-    <row r="78" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>28331057.329999998</v>
       </c>
@@ -6365,7 +6364,7 @@
         <v>52373766.659999996</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D78" s="4">
         <v>2001</v>
@@ -6389,7 +6388,7 @@
         <v>7.72</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L78" s="4">
         <v>7</v>
@@ -6442,7 +6441,7 @@
         <v>10911631.93</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D79" s="4">
         <v>2001</v>
@@ -6466,7 +6465,7 @@
         <v>7.04</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L79" s="4">
         <v>8</v>
@@ -6519,7 +6518,7 @@
         <v>9625088.5600000005</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D80" s="4">
         <v>2001</v>
@@ -6543,7 +6542,7 @@
         <v>6.98</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L80" s="4">
         <v>9</v>
@@ -6596,7 +6595,7 @@
         <v>34739360.840000004</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D81" s="4">
         <v>2001</v>
@@ -6620,7 +6619,7 @@
         <v>7.54</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L81" s="4">
         <v>10</v>
@@ -6673,7 +6672,7 @@
         <v>73364311.290000007</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D82" s="4">
         <v>2002</v>
@@ -6697,7 +6696,7 @@
         <v>7.87</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L82" s="4">
         <v>1</v>
@@ -6750,7 +6749,7 @@
         <v>47908319.420000002</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D83" s="4">
         <v>2002</v>
@@ -6774,7 +6773,7 @@
         <v>7.68</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L83" s="4">
         <v>2</v>
@@ -6827,7 +6826,7 @@
         <v>27082902.670000002</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D84" s="4">
         <v>2002</v>
@@ -6851,7 +6850,7 @@
         <v>7.43</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L84" s="4">
         <v>3</v>
@@ -6904,7 +6903,7 @@
         <v>8006474.3099999996</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D85" s="4">
         <v>2002</v>
@@ -6928,7 +6927,7 @@
         <v>6.9</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L85" s="4">
         <v>4</v>
@@ -6981,7 +6980,7 @@
         <v>11693943.369999999</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="4">
         <v>2002</v>
@@ -7005,7 +7004,7 @@
         <v>7.07</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L86" s="4">
         <v>5</v>
@@ -7058,7 +7057,7 @@
         <v>2665475.85</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D87" s="4">
         <v>2002</v>
@@ -7082,7 +7081,7 @@
         <v>6.43</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L87" s="4">
         <v>6</v>
@@ -7127,7 +7126,7 @@
       <c r="AN87" s="3"/>
       <c r="AO87" s="3"/>
     </row>
-    <row r="88" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>25439260.010000002</v>
       </c>
@@ -7135,7 +7134,7 @@
         <v>48007996.219999999</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D88" s="4">
         <v>2002</v>
@@ -7159,7 +7158,7 @@
         <v>7.68</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L88" s="4">
         <v>7</v>
@@ -7212,7 +7211,7 @@
         <v>11067915.74</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D89" s="4">
         <v>2002</v>
@@ -7236,7 +7235,7 @@
         <v>7.04</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L89" s="4">
         <v>8</v>
@@ -7289,7 +7288,7 @@
         <v>9985939.3000000007</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D90" s="4">
         <v>2002</v>
@@ -7313,7 +7312,7 @@
         <v>7</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L90" s="4">
         <v>9</v>
@@ -7366,7 +7365,7 @@
         <v>37447400.909999996</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D91" s="4">
         <v>2002</v>
@@ -7390,7 +7389,7 @@
         <v>7.57</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L91" s="4">
         <v>10</v>
@@ -7443,7 +7442,7 @@
         <v>75992533.079999998</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D92" s="4">
         <v>2003</v>
@@ -7467,7 +7466,7 @@
         <v>7.88</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L92" s="4">
         <v>1</v>
@@ -7520,7 +7519,7 @@
         <v>51772137.189999998</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D93" s="4">
         <v>2003</v>
@@ -7544,7 +7543,7 @@
         <v>7.71</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L93" s="4">
         <v>2</v>
@@ -7597,7 +7596,7 @@
         <v>28972713.27</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D94" s="4">
         <v>2003</v>
@@ -7621,7 +7620,7 @@
         <v>7.46</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L94" s="4">
         <v>3</v>
@@ -7674,7 +7673,7 @@
         <v>8606455.7799999993</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D95" s="4">
         <v>2003</v>
@@ -7698,7 +7697,7 @@
         <v>6.93</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L95" s="4">
         <v>4</v>
@@ -7751,7 +7750,7 @@
         <v>12791089.300000001</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="4">
         <v>2003</v>
@@ -7775,7 +7774,7 @@
         <v>7.11</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L96" s="4">
         <v>5</v>
@@ -7828,7 +7827,7 @@
         <v>4216858.63</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D97" s="4">
         <v>2003</v>
@@ -7852,7 +7851,7 @@
         <v>6.62</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L97" s="4">
         <v>6</v>
@@ -7897,7 +7896,7 @@
       <c r="AN97" s="3"/>
       <c r="AO97" s="3"/>
     </row>
-    <row r="98" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>24661268.530000001</v>
       </c>
@@ -7905,7 +7904,7 @@
         <v>49281870.990000002</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D98" s="4">
         <v>2003</v>
@@ -7929,7 +7928,7 @@
         <v>7.69</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L98" s="4">
         <v>7</v>
@@ -7982,7 +7981,7 @@
         <v>11328731.23</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D99" s="4">
         <v>2003</v>
@@ -8006,7 +8005,7 @@
         <v>7.05</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L99" s="4">
         <v>8</v>
@@ -8059,7 +8058,7 @@
         <v>10507546.6</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D100" s="4">
         <v>2003</v>
@@ -8083,7 +8082,7 @@
         <v>7.02</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L100" s="4">
         <v>9</v>
@@ -8136,7 +8135,7 @@
         <v>39420542.100000001</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D101" s="4">
         <v>2003</v>
@@ -8160,7 +8159,7 @@
         <v>7.6</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L101" s="4">
         <v>10</v>
@@ -8213,7 +8212,7 @@
         <v>82327932.709999993</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D102" s="4">
         <v>2004</v>
@@ -8237,7 +8236,7 @@
         <v>7.92</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L102" s="4">
         <v>1</v>
@@ -8290,7 +8289,7 @@
         <v>56243838.75</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D103" s="4">
         <v>2004</v>
@@ -8314,7 +8313,7 @@
         <v>7.75</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L103" s="4">
         <v>2</v>
@@ -8367,7 +8366,7 @@
         <v>33327813.190000001</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D104" s="4">
         <v>2004</v>
@@ -8391,7 +8390,7 @@
         <v>7.52</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L104" s="4">
         <v>3</v>
@@ -8444,7 +8443,7 @@
         <v>9654222.4299999997</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D105" s="4">
         <v>2004</v>
@@ -8468,7 +8467,7 @@
         <v>6.98</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L105" s="4">
         <v>4</v>
@@ -8521,7 +8520,7 @@
         <v>14230549.140000001</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="4">
         <v>2004</v>
@@ -8545,7 +8544,7 @@
         <v>7.15</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L106" s="4">
         <v>5</v>
@@ -8598,7 +8597,7 @@
         <v>5654124.2599999998</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D107" s="4">
         <v>2004</v>
@@ -8622,7 +8621,7 @@
         <v>6.75</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L107" s="4">
         <v>6</v>
@@ -8667,7 +8666,7 @@
       <c r="AN107" s="3"/>
       <c r="AO107" s="3"/>
     </row>
-    <row r="108" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>27785949.260000002</v>
       </c>
@@ -8675,7 +8674,7 @@
         <v>53545431.890000001</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D108" s="4">
         <v>2004</v>
@@ -8699,7 +8698,7 @@
         <v>7.73</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L108" s="4">
         <v>7</v>
@@ -8752,7 +8751,7 @@
         <v>13938327.369999999</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D109" s="4">
         <v>2004</v>
@@ -8776,7 +8775,7 @@
         <v>7.14</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L109" s="4">
         <v>8</v>
@@ -8829,7 +8828,7 @@
         <v>11772087.539999999</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D110" s="4">
         <v>2004</v>
@@ -8853,7 +8852,7 @@
         <v>7.07</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L110" s="4">
         <v>9</v>
@@ -8906,7 +8905,7 @@
         <v>40819301.009999998</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D111" s="4">
         <v>2004</v>
@@ -8930,7 +8929,7 @@
         <v>7.61</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L111" s="4">
         <v>10</v>
@@ -8983,7 +8982,7 @@
         <v>89480866.930000007</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D112" s="4">
         <v>2005</v>
@@ -9007,7 +9006,7 @@
         <v>7.95</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L112" s="4">
         <v>1</v>
@@ -9060,7 +9059,7 @@
         <v>64162602.520000003</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D113" s="4">
         <v>2005</v>
@@ -9084,7 +9083,7 @@
         <v>7.81</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L113" s="4">
         <v>2</v>
@@ -9137,7 +9136,7 @@
         <v>37585481.82</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D114" s="4">
         <v>2005</v>
@@ -9161,7 +9160,7 @@
         <v>7.58</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L114" s="4">
         <v>3</v>
@@ -9214,7 +9213,7 @@
         <v>11008802.92</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D115" s="4">
         <v>2005</v>
@@ -9238,7 +9237,7 @@
         <v>7.04</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L115" s="4">
         <v>4</v>
@@ -9291,7 +9290,7 @@
         <v>15776143.32</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="4">
         <v>2005</v>
@@ -9315,7 +9314,7 @@
         <v>7.2</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L116" s="4">
         <v>5</v>
@@ -9368,7 +9367,7 @@
         <v>8306611.4000000004</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D117" s="4">
         <v>2005</v>
@@ -9392,7 +9391,7 @@
         <v>6.92</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L117" s="4">
         <v>6</v>
@@ -9437,7 +9436,7 @@
       <c r="AN117" s="3"/>
       <c r="AO117" s="3"/>
     </row>
-    <row r="118" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>30467130.460000001</v>
       </c>
@@ -9445,7 +9444,7 @@
         <v>59429099.060000002</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D118" s="4">
         <v>2005</v>
@@ -9469,7 +9468,7 @@
         <v>7.77</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L118" s="4">
         <v>7</v>
@@ -9522,7 +9521,7 @@
         <v>16218103.810000001</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D119" s="4">
         <v>2005</v>
@@ -9546,7 +9545,7 @@
         <v>7.21</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L119" s="4">
         <v>8</v>
@@ -9599,7 +9598,7 @@
         <v>13269388.550000001</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D120" s="4">
         <v>2005</v>
@@ -9623,7 +9622,7 @@
         <v>7.12</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L120" s="4">
         <v>9</v>
@@ -9676,7 +9675,7 @@
         <v>44483625.359999999</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D121" s="4">
         <v>2005</v>
@@ -9700,7 +9699,7 @@
         <v>7.65</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L121" s="4">
         <v>10</v>
@@ -9753,7 +9752,7 @@
         <v>98194998.909999996</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D122" s="4">
         <v>2006</v>
@@ -9777,7 +9776,7 @@
         <v>7.99</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L122" s="4">
         <v>1</v>
@@ -9830,7 +9829,7 @@
         <v>70153888.579999998</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D123" s="4">
         <v>2006</v>
@@ -9854,7 +9853,7 @@
         <v>7.85</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L123" s="4">
         <v>2</v>
@@ -9907,7 +9906,7 @@
         <v>42468119.380000003</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D124" s="4">
         <v>2006</v>
@@ -9931,7 +9930,7 @@
         <v>7.63</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L124" s="4">
         <v>3</v>
@@ -9984,7 +9983,7 @@
         <v>13335649.82</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D125" s="4">
         <v>2006</v>
@@ -10008,7 +10007,7 @@
         <v>7.13</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L125" s="4">
         <v>4</v>
@@ -10061,7 +10060,7 @@
         <v>17257157.780000001</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D126" s="4">
         <v>2006</v>
@@ -10085,7 +10084,7 @@
         <v>7.24</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L126" s="4">
         <v>5</v>
@@ -10138,7 +10137,7 @@
         <v>8517171.4000000004</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D127" s="4">
         <v>2006</v>
@@ -10162,7 +10161,7 @@
         <v>6.93</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L127" s="4">
         <v>6</v>
@@ -10207,7 +10206,7 @@
       <c r="AN127" s="3"/>
       <c r="AO127" s="3"/>
     </row>
-    <row r="128" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>31113079.800000001</v>
       </c>
@@ -10215,7 +10214,7 @@
         <v>64427902.920000002</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D128" s="4">
         <v>2006</v>
@@ -10239,7 +10238,7 @@
         <v>7.81</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L128" s="4">
         <v>7</v>
@@ -10292,7 +10291,7 @@
         <v>18535408.899999999</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D129" s="4">
         <v>2006</v>
@@ -10316,7 +10315,7 @@
         <v>7.27</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L129" s="4">
         <v>8</v>
@@ -10369,7 +10368,7 @@
         <v>14140062.42</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D130" s="4">
         <v>2006</v>
@@ -10393,7 +10392,7 @@
         <v>7.15</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L130" s="4">
         <v>9</v>
@@ -10446,7 +10445,7 @@
         <v>50716938.700000003</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D131" s="4">
         <v>2006</v>
@@ -10470,7 +10469,7 @@
         <v>7.71</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L131" s="4">
         <v>10</v>
@@ -10523,7 +10522,7 @@
         <v>101864579.15000001</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D132" s="4">
         <v>2007</v>
@@ -10547,7 +10546,7 @@
         <v>8.01</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L132" s="4">
         <v>1</v>
@@ -10600,7 +10599,7 @@
         <v>78388736.450000003</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D133" s="4">
         <v>2007</v>
@@ -10624,7 +10623,7 @@
         <v>7.89</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L133" s="4">
         <v>2</v>
@@ -10677,7 +10676,7 @@
         <v>44421030.299999997</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D134" s="4">
         <v>2007</v>
@@ -10701,7 +10700,7 @@
         <v>7.65</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L134" s="4">
         <v>3</v>
@@ -10754,7 +10753,7 @@
         <v>15541944.279999999</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D135" s="4">
         <v>2007</v>
@@ -10778,7 +10777,7 @@
         <v>7.19</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L135" s="4">
         <v>4</v>
@@ -10831,7 +10830,7 @@
         <v>17673905.09</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="4">
         <v>2007</v>
@@ -10855,7 +10854,7 @@
         <v>7.25</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L136" s="4">
         <v>5</v>
@@ -10908,7 +10907,7 @@
         <v>10382926.32</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D137" s="4">
         <v>2007</v>
@@ -10932,7 +10931,7 @@
         <v>7.02</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L137" s="4">
         <v>6</v>
@@ -10977,7 +10976,7 @@
       <c r="AN137" s="3"/>
       <c r="AO137" s="3"/>
     </row>
-    <row r="138" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>32794086.350000001</v>
       </c>
@@ -10985,7 +10984,7 @@
         <v>66157477.469999999</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D138" s="4">
         <v>2007</v>
@@ -11009,7 +11008,7 @@
         <v>7.82</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L138" s="4">
         <v>7</v>
@@ -11062,7 +11061,7 @@
         <v>19751927.100000001</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D139" s="4">
         <v>2007</v>
@@ -11086,7 +11085,7 @@
         <v>7.3</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L139" s="4">
         <v>8</v>
@@ -11139,7 +11138,7 @@
         <v>14463236.779999999</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D140" s="4">
         <v>2007</v>
@@ -11163,7 +11162,7 @@
         <v>7.16</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L140" s="4">
         <v>9</v>
@@ -11216,7 +11215,7 @@
         <v>55642932.270000003</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D141" s="4">
         <v>2007</v>
@@ -11240,7 +11239,7 @@
         <v>7.75</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L141" s="4">
         <v>10</v>
@@ -11293,7 +11292,7 @@
         <v>99750403.540000007</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D142" s="4">
         <v>2008</v>
@@ -11317,7 +11316,7 @@
         <v>8</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L142" s="4">
         <v>1</v>
@@ -11370,7 +11369,7 @@
         <v>85090114.950000003</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D143" s="4">
         <v>2008</v>
@@ -11394,7 +11393,7 @@
         <v>7.93</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L143" s="4">
         <v>2</v>
@@ -11447,7 +11446,7 @@
         <v>49322582.109999999</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D144" s="4">
         <v>2008</v>
@@ -11471,7 +11470,7 @@
         <v>7.69</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L144" s="4">
         <v>3</v>
@@ -11524,7 +11523,7 @@
         <v>19364771.98</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D145" s="4">
         <v>2008</v>
@@ -11548,7 +11547,7 @@
         <v>7.29</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L145" s="4">
         <v>4</v>
@@ -11601,7 +11600,7 @@
         <v>19292777</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D146" s="4">
         <v>2008</v>
@@ -11625,7 +11624,7 @@
         <v>7.29</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L146" s="4">
         <v>5</v>
@@ -11678,7 +11677,7 @@
         <v>16513534.970000001</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D147" s="4">
         <v>2008</v>
@@ -11702,7 +11701,7 @@
         <v>7.22</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L147" s="4">
         <v>6</v>
@@ -11747,7 +11746,7 @@
       <c r="AN147" s="3"/>
       <c r="AO147" s="3"/>
     </row>
-    <row r="148" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>31901391.109999999</v>
       </c>
@@ -11755,7 +11754,7 @@
         <v>67178419.280000001</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D148" s="4">
         <v>2008</v>
@@ -11779,7 +11778,7 @@
         <v>7.83</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L148" s="4">
         <v>7</v>
@@ -11832,7 +11831,7 @@
         <v>21817251.899999999</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D149" s="4">
         <v>2008</v>
@@ -11856,7 +11855,7 @@
         <v>7.34</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L149" s="4">
         <v>8</v>
@@ -11909,7 +11908,7 @@
         <v>15173631.93</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D150" s="4">
         <v>2008</v>
@@ -11933,7 +11932,7 @@
         <v>7.18</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L150" s="4">
         <v>9</v>
@@ -11986,7 +11985,7 @@
         <v>51477939.649999999</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D151" s="4">
         <v>2008</v>
@@ -12010,7 +12009,7 @@
         <v>7.71</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L151" s="4">
         <v>10</v>
@@ -12063,7 +12062,7 @@
         <v>74661007.260000005</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D152" s="4">
         <v>2009</v>
@@ -12087,7 +12086,7 @@
         <v>7.87</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L152" s="4">
         <v>1</v>
@@ -12140,7 +12139,7 @@
         <v>68603752.349999994</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D153" s="4">
         <v>2009</v>
@@ -12164,7 +12163,7 @@
         <v>7.84</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L153" s="4">
         <v>2</v>
@@ -12217,7 +12216,7 @@
         <v>35069693.119999997</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D154" s="4">
         <v>2009</v>
@@ -12241,7 +12240,7 @@
         <v>7.54</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L154" s="4">
         <v>3</v>
@@ -12294,7 +12293,7 @@
         <v>15253377.41</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D155" s="4">
         <v>2009</v>
@@ -12318,7 +12317,7 @@
         <v>7.18</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L155" s="4">
         <v>4</v>
@@ -12371,7 +12370,7 @@
         <v>18602458.030000001</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="4">
         <v>2009</v>
@@ -12395,7 +12394,7 @@
         <v>7.27</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L156" s="4">
         <v>5</v>
@@ -12448,7 +12447,7 @@
         <v>9674171.1699999999</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D157" s="4">
         <v>2009</v>
@@ -12472,7 +12471,7 @@
         <v>6.99</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L157" s="4">
         <v>6</v>
@@ -12517,7 +12516,7 @@
       <c r="AN157" s="3"/>
       <c r="AO157" s="3"/>
     </row>
-    <row r="158" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>23986979.460000001</v>
       </c>
@@ -12525,7 +12524,7 @@
         <v>51785246.689999998</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D158" s="4">
         <v>2009</v>
@@ -12549,7 +12548,7 @@
         <v>7.71</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L158" s="4">
         <v>7</v>
@@ -12602,7 +12601,7 @@
         <v>14623708.84</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D159" s="4">
         <v>2009</v>
@@ -12626,7 +12625,7 @@
         <v>7.17</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L159" s="4">
         <v>8</v>
@@ -12679,7 +12678,7 @@
         <v>12590609.039999999</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D160" s="4">
         <v>2009</v>
@@ -12703,7 +12702,7 @@
         <v>7.1</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L160" s="4">
         <v>9</v>
@@ -12756,7 +12755,7 @@
         <v>32353578.02</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D161" s="4">
         <v>2009</v>
@@ -12780,7 +12779,7 @@
         <v>7.51</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L161" s="4">
         <v>10</v>
@@ -12833,7 +12832,7 @@
         <v>94616321.519999996</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D162" s="4">
         <v>2010</v>
@@ -12857,7 +12856,7 @@
         <v>7.98</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L162" s="4">
         <v>1</v>
@@ -12910,7 +12909,7 @@
         <v>81850220.739999995</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D163" s="4">
         <v>2010</v>
@@ -12934,7 +12933,7 @@
         <v>7.91</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L163" s="4">
         <v>2</v>
@@ -12987,7 +12986,7 @@
         <v>45087568.719999999</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D164" s="4">
         <v>2010</v>
@@ -13011,7 +13010,7 @@
         <v>7.65</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L164" s="4">
         <v>3</v>
@@ -13064,7 +13063,7 @@
         <v>17468372.219999999</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D165" s="4">
         <v>2010</v>
@@ -13088,7 +13087,7 @@
         <v>7.24</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L165" s="4">
         <v>4</v>
@@ -13141,7 +13140,7 @@
         <v>21309928.600000001</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D166" s="4">
         <v>2010</v>
@@ -13165,7 +13164,7 @@
         <v>7.33</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L166" s="4">
         <v>5</v>
@@ -13218,7 +13217,7 @@
         <v>13153607.789999999</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D167" s="4">
         <v>2010</v>
@@ -13242,7 +13241,7 @@
         <v>7.12</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L167" s="4">
         <v>6</v>
@@ -13287,7 +13286,7 @@
       <c r="AN167" s="3"/>
       <c r="AO167" s="3"/>
     </row>
-    <row r="168" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
         <v>25833287.300000001</v>
       </c>
@@ -13295,7 +13294,7 @@
         <v>63797207.600000001</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D168" s="4">
         <v>2010</v>
@@ -13319,7 +13318,7 @@
         <v>7.8</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L168" s="4">
         <v>7</v>
@@ -13372,7 +13371,7 @@
         <v>19680712.77</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D169" s="4">
         <v>2010</v>
@@ -13396,7 +13395,7 @@
         <v>7.29</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L169" s="4">
         <v>8</v>
@@ -13449,7 +13448,7 @@
         <v>15409500.050000001</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D170" s="4">
         <v>2010</v>
@@ -13473,7 +13472,7 @@
         <v>7.19</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L170" s="4">
         <v>9</v>
@@ -13526,7 +13525,7 @@
         <v>44029753.740000002</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D171" s="4">
         <v>2010</v>
@@ -13550,7 +13549,7 @@
         <v>7.64</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L171" s="4">
         <v>10</v>
@@ -13603,7 +13602,7 @@
         <v>106381925.38</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D172" s="4">
         <v>2011</v>
@@ -13627,7 +13626,7 @@
         <v>8.0299999999999994</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L172" s="4">
         <v>1</v>
@@ -13680,7 +13679,7 @@
         <v>93288238.700000003</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D173" s="4">
         <v>2011</v>
@@ -13704,7 +13703,7 @@
         <v>7.97</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L173" s="4">
         <v>2</v>
@@ -13757,7 +13756,7 @@
         <v>50496157</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D174" s="4">
         <v>2011</v>
@@ -13781,7 +13780,7 @@
         <v>7.7</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L174" s="4">
         <v>3</v>
@@ -13834,7 +13833,7 @@
         <v>19982063.379999999</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D175" s="4">
         <v>2011</v>
@@ -13858,7 +13857,7 @@
         <v>7.3</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L175" s="4">
         <v>4</v>
@@ -13911,7 +13910,7 @@
         <v>23498839.960000001</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D176" s="4">
         <v>2011</v>
@@ -13935,7 +13934,7 @@
         <v>7.37</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L176" s="4">
         <v>5</v>
@@ -13988,7 +13987,7 @@
         <v>18811787.600000001</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D177" s="4">
         <v>2011</v>
@@ -14012,7 +14011,7 @@
         <v>7.27</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L177" s="4">
         <v>6</v>
@@ -14057,7 +14056,7 @@
       <c r="AN177" s="3"/>
       <c r="AO177" s="3"/>
     </row>
-    <row r="178" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
         <v>28363328.75</v>
       </c>
@@ -14065,7 +14064,7 @@
         <v>71319011.079999998</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D178" s="4">
         <v>2011</v>
@@ -14089,7 +14088,7 @@
         <v>7.85</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L178" s="4">
         <v>7</v>
@@ -14142,7 +14141,7 @@
         <v>22348224.73</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D179" s="4">
         <v>2011</v>
@@ -14166,7 +14165,7 @@
         <v>7.35</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L179" s="4">
         <v>8</v>
@@ -14219,7 +14218,7 @@
         <v>17285729.170000002</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D180" s="4">
         <v>2011</v>
@@ -14243,7 +14242,7 @@
         <v>7.24</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L180" s="4">
         <v>9</v>
@@ -14296,7 +14295,7 @@
         <v>48974378.740000002</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D181" s="4">
         <v>2011</v>
@@ -14320,7 +14319,7 @@
         <v>7.69</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L181" s="4">
         <v>10</v>
@@ -14373,7 +14372,7 @@
         <v>112949281.76000001</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D182" s="4">
         <v>2012</v>
@@ -14397,7 +14396,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L182" s="4">
         <v>1</v>
@@ -14450,7 +14449,7 @@
         <v>96715531.969999999</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D183" s="4">
         <v>2012</v>
@@ -14474,7 +14473,7 @@
         <v>7.99</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L183" s="4">
         <v>2</v>
@@ -14527,7 +14526,7 @@
         <v>51437493.969999999</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D184" s="4">
         <v>2012</v>
@@ -14551,7 +14550,7 @@
         <v>7.71</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L184" s="4">
         <v>3</v>
@@ -14604,7 +14603,7 @@
         <v>19901390.57</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D185" s="4">
         <v>2012</v>
@@ -14628,7 +14627,7 @@
         <v>7.3</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L185" s="4">
         <v>4</v>
@@ -14681,7 +14680,7 @@
         <v>23151911.52</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D186" s="4">
         <v>2012</v>
@@ -14705,7 +14704,7 @@
         <v>7.36</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L186" s="4">
         <v>5</v>
@@ -14758,7 +14757,7 @@
         <v>18927854.899999999</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D187" s="4">
         <v>2012</v>
@@ -14782,7 +14781,7 @@
         <v>7.28</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L187" s="4">
         <v>6</v>
@@ -14827,7 +14826,7 @@
       <c r="AN187" s="3"/>
       <c r="AO187" s="3"/>
     </row>
-    <row r="188" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
         <v>28947345.460000001</v>
       </c>
@@ -14835,7 +14834,7 @@
         <v>74655000.769999996</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D188" s="4">
         <v>2012</v>
@@ -14859,7 +14858,7 @@
         <v>7.87</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L188" s="4">
         <v>7</v>
@@ -14912,7 +14911,7 @@
         <v>22930278.77</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D189" s="4">
         <v>2012</v>
@@ -14936,7 +14935,7 @@
         <v>7.36</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L189" s="4">
         <v>8</v>
@@ -14989,7 +14988,7 @@
         <v>17975529.620000001</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D190" s="4">
         <v>2012</v>
@@ -15013,7 +15012,7 @@
         <v>7.25</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L190" s="4">
         <v>9</v>
@@ -15066,7 +15065,7 @@
         <v>52108727.859999999</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D191" s="4">
         <v>2012</v>
@@ -15090,7 +15089,7 @@
         <v>7.72</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L191" s="4">
         <v>10</v>
@@ -15143,7 +15142,7 @@
         <v>112032733.33</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D192" s="4">
         <v>2013</v>
@@ -15167,7 +15166,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L192" s="4">
         <v>1</v>
@@ -15220,7 +15219,7 @@
         <v>102231429.56</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D193" s="4">
         <v>2013</v>
@@ -15244,7 +15243,7 @@
         <v>8.01</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L193" s="4">
         <v>2</v>
@@ -15297,7 +15296,7 @@
         <v>51216556.479999997</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D194" s="4">
         <v>2013</v>
@@ -15321,7 +15320,7 @@
         <v>7.71</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L194" s="4">
         <v>3</v>
@@ -15374,7 +15373,7 @@
         <v>21519644.960000001</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D195" s="4">
         <v>2013</v>
@@ -15398,7 +15397,7 @@
         <v>7.33</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L195" s="4">
         <v>4</v>
@@ -15451,7 +15450,7 @@
         <v>23768032.800000001</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D196" s="4">
         <v>2013</v>
@@ -15475,7 +15474,7 @@
         <v>7.38</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L196" s="4">
         <v>5</v>
@@ -15528,7 +15527,7 @@
         <v>24954704.850000001</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D197" s="4">
         <v>2013</v>
@@ -15552,7 +15551,7 @@
         <v>7.4</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L197" s="4">
         <v>6</v>
@@ -15597,7 +15596,7 @@
       <c r="AN197" s="3"/>
       <c r="AO197" s="3"/>
     </row>
-    <row r="198" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
         <v>27789380.640000001</v>
       </c>
@@ -15605,7 +15604,7 @@
         <v>72544988.420000002</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D198" s="4">
         <v>2013</v>
@@ -15629,7 +15628,7 @@
         <v>7.86</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L198" s="4">
         <v>7</v>
@@ -15682,7 +15681,7 @@
         <v>22115409.300000001</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D199" s="4">
         <v>2013</v>
@@ -15706,7 +15705,7 @@
         <v>7.34</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L199" s="4">
         <v>8</v>
@@ -15759,7 +15758,7 @@
         <v>17772269.420000002</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D200" s="4">
         <v>2013</v>
@@ -15783,7 +15782,7 @@
         <v>7.25</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L200" s="4">
         <v>9</v>
@@ -15836,7 +15835,7 @@
         <v>53812590.710000001</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D201" s="4">
         <v>2013</v>
@@ -15860,7 +15859,7 @@
         <v>7.73</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L201" s="4">
         <v>10</v>
@@ -15913,7 +15912,7 @@
         <v>112824745.7</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D202" s="4">
         <v>2014</v>
@@ -15937,7 +15936,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="K202" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L202" s="4">
         <v>1</v>
@@ -15990,7 +15989,7 @@
         <v>104817605.15000001</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D203" s="4">
         <v>2014</v>
@@ -16014,7 +16013,7 @@
         <v>8.02</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L203" s="4">
         <v>2</v>
@@ -16067,7 +16066,7 @@
         <v>51163502.030000001</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D204" s="4">
         <v>2014</v>
@@ -16091,7 +16090,7 @@
         <v>7.71</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L204" s="4">
         <v>3</v>
@@ -16144,7 +16143,7 @@
         <v>28727921.440000001</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D205" s="4">
         <v>2014</v>
@@ -16168,7 +16167,7 @@
         <v>7.46</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L205" s="4">
         <v>4</v>
@@ -16221,7 +16220,7 @@
         <v>23953084.460000001</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D206" s="4">
         <v>2014</v>
@@ -16245,7 +16244,7 @@
         <v>7.38</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L206" s="4">
         <v>5</v>
@@ -16298,7 +16297,7 @@
         <v>32804219.989999998</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D207" s="4">
         <v>2014</v>
@@ -16322,7 +16321,7 @@
         <v>7.52</v>
       </c>
       <c r="K207" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L207" s="4">
         <v>6</v>
@@ -16367,7 +16366,7 @@
       <c r="AN207" s="3"/>
       <c r="AO207" s="3"/>
     </row>
-    <row r="208" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5">
         <v>29185256.870000001</v>
       </c>
@@ -16375,7 +16374,7 @@
         <v>74430155.129999995</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D208" s="4">
         <v>2014</v>
@@ -16399,7 +16398,7 @@
         <v>7.87</v>
       </c>
       <c r="K208" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L208" s="4">
         <v>7</v>
@@ -16452,7 +16451,7 @@
         <v>22345986.239999998</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D209" s="4">
         <v>2014</v>
@@ -16476,7 +16475,7 @@
         <v>7.35</v>
       </c>
       <c r="K209" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L209" s="4">
         <v>8</v>
@@ -16529,7 +16528,7 @@
         <v>18351257.190000001</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D210" s="4">
         <v>2014</v>
@@ -16553,7 +16552,7 @@
         <v>7.26</v>
       </c>
       <c r="K210" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L210" s="4">
         <v>9</v>
@@ -16606,7 +16605,7 @@
         <v>53303275.939999998</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D211" s="4">
         <v>2014</v>
@@ -16630,7 +16629,7 @@
         <v>7.73</v>
       </c>
       <c r="K211" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L211" s="4">
         <v>10</v>
@@ -16683,7 +16682,7 @@
         <v>103785287.31</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D212" s="4">
         <v>2015</v>
@@ -16707,7 +16706,7 @@
         <v>8.02</v>
       </c>
       <c r="K212" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L212" s="4">
         <v>1</v>
@@ -16760,7 +16759,7 @@
         <v>92531838.299999997</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D213" s="4">
         <v>2015</v>
@@ -16784,7 +16783,7 @@
         <v>7.97</v>
       </c>
       <c r="K213" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L213" s="4">
         <v>2</v>
@@ -16837,7 +16836,7 @@
         <v>45215344.079999998</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D214" s="4">
         <v>2015</v>
@@ -16861,7 +16860,7 @@
         <v>7.66</v>
       </c>
       <c r="K214" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L214" s="4">
         <v>3</v>
@@ -16914,7 +16913,7 @@
         <v>23665021.850000001</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D215" s="4">
         <v>2015</v>
@@ -16938,7 +16937,7 @@
         <v>7.37</v>
       </c>
       <c r="K215" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L215" s="4">
         <v>4</v>
@@ -16991,7 +16990,7 @@
         <v>22478795.09</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D216" s="4">
         <v>2015</v>
@@ -17015,7 +17014,7 @@
         <v>7.35</v>
       </c>
       <c r="K216" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L216" s="4">
         <v>5</v>
@@ -17068,7 +17067,7 @@
         <v>21331790.140000001</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D217" s="4">
         <v>2015</v>
@@ -17092,7 +17091,7 @@
         <v>7.33</v>
       </c>
       <c r="K217" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L217" s="4">
         <v>6</v>
@@ -17137,7 +17136,7 @@
       <c r="AN217" s="3"/>
       <c r="AO217" s="3"/>
     </row>
-    <row r="218" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5">
         <v>27703738.84</v>
       </c>
@@ -17145,7 +17144,7 @@
         <v>68181716.120000005</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D218" s="4">
         <v>2015</v>
@@ -17169,7 +17168,7 @@
         <v>7.83</v>
       </c>
       <c r="K218" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L218" s="4">
         <v>7</v>
@@ -17222,7 +17221,7 @@
         <v>18692441.039999999</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D219" s="4">
         <v>2015</v>
@@ -17246,7 +17245,7 @@
         <v>7.27</v>
       </c>
       <c r="K219" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L219" s="4">
         <v>8</v>
@@ -17299,7 +17298,7 @@
         <v>16760041.189999999</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D220" s="4">
         <v>2015</v>
@@ -17323,7 +17322,7 @@
         <v>7.22</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L220" s="4">
         <v>9</v>
@@ -17376,7 +17375,7 @@
         <v>49531042.579999998</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D221" s="4">
         <v>2015</v>
@@ -17400,7 +17399,7 @@
         <v>7.69</v>
       </c>
       <c r="K221" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L221" s="4">
         <v>10</v>
@@ -17453,7 +17452,7 @@
         <v>100439910.86</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D222" s="4">
         <v>2016</v>
@@ -17477,7 +17476,7 @@
         <v>8</v>
       </c>
       <c r="K222" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L222" s="4">
         <v>1</v>
@@ -17530,7 +17529,7 @@
         <v>88647033.930000007</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D223" s="4">
         <v>2016</v>
@@ -17554,7 +17553,7 @@
         <v>7.95</v>
       </c>
       <c r="K223" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L223" s="4">
         <v>2</v>
@@ -17607,7 +17606,7 @@
         <v>42499529.759999998</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D224" s="4">
         <v>2016</v>
@@ -17631,7 +17630,7 @@
         <v>7.63</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L224" s="4">
         <v>3</v>
@@ -17684,7 +17683,7 @@
         <v>20593840.879999999</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D225" s="4">
         <v>2016</v>
@@ -17708,7 +17707,7 @@
         <v>7.31</v>
       </c>
       <c r="K225" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L225" s="4">
         <v>4</v>
@@ -17761,7 +17760,7 @@
         <v>21241442.289999999</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D226" s="4">
         <v>2016</v>
@@ -17785,7 +17784,7 @@
         <v>7.33</v>
       </c>
       <c r="K226" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L226" s="4">
         <v>5</v>
@@ -17838,7 +17837,7 @@
         <v>16778550.719999999</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D227" s="4">
         <v>2016</v>
@@ -17862,7 +17861,7 @@
         <v>7.22</v>
       </c>
       <c r="K227" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L227" s="4">
         <v>6</v>
@@ -17907,7 +17906,7 @@
       <c r="AN227" s="3"/>
       <c r="AO227" s="3"/>
     </row>
-    <row r="228" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5">
         <v>26724095.350000001</v>
       </c>
@@ -17915,7 +17914,7 @@
         <v>64233156.009999998</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D228" s="4">
         <v>2016</v>
@@ -17939,7 +17938,7 @@
         <v>7.81</v>
       </c>
       <c r="K228" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L228" s="4">
         <v>7</v>
@@ -17992,7 +17991,7 @@
         <v>16964467.100000001</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D229" s="4">
         <v>2016</v>
@@ -18016,7 +18015,7 @@
         <v>7.23</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L229" s="4">
         <v>8</v>
@@ -18069,7 +18068,7 @@
         <v>16222847.58</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D230" s="4">
         <v>2016</v>
@@ -18093,7 +18092,7 @@
         <v>7.21</v>
       </c>
       <c r="K230" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L230" s="4">
         <v>9</v>
@@ -18146,7 +18145,7 @@
         <v>57512645.310000002</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D231" s="4">
         <v>2016</v>
@@ -18170,7 +18169,7 @@
         <v>7.76</v>
       </c>
       <c r="K231" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L231" s="4">
         <v>10</v>
@@ -18223,7 +18222,7 @@
         <v>106547146.03</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D232" s="4">
         <v>2017</v>
@@ -18247,7 +18246,7 @@
         <v>8.0299999999999994</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L232" s="4">
         <v>1</v>
@@ -18300,7 +18299,7 @@
         <v>92853382.689999998</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D233" s="4">
         <v>2017</v>
@@ -18324,7 +18323,7 @@
         <v>7.97</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L233" s="4">
         <v>2</v>
@@ -18377,7 +18376,7 @@
         <v>44556788.450000003</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D234" s="4">
         <v>2017</v>
@@ -18401,7 +18400,7 @@
         <v>7.65</v>
       </c>
       <c r="K234" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L234" s="4">
         <v>3</v>
@@ -18454,7 +18453,7 @@
         <v>22443993.949999999</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D235" s="4">
         <v>2017</v>
@@ -18478,7 +18477,7 @@
         <v>7.35</v>
       </c>
       <c r="K235" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L235" s="4">
         <v>4</v>
@@ -18531,7 +18530,7 @@
         <v>22285842.469999999</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D236" s="4">
         <v>2017</v>
@@ -18555,7 +18554,7 @@
         <v>7.35</v>
       </c>
       <c r="K236" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L236" s="4">
         <v>5</v>
@@ -18608,7 +18607,7 @@
         <v>19633531.280000001</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D237" s="4">
         <v>2017</v>
@@ -18632,7 +18631,7 @@
         <v>7.29</v>
       </c>
       <c r="K237" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L237" s="4">
         <v>6</v>
@@ -18677,7 +18676,7 @@
       <c r="AN237" s="3"/>
       <c r="AO237" s="3"/>
     </row>
-    <row r="238" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5">
         <v>29063938.710000001</v>
       </c>
@@ -18685,7 +18684,7 @@
         <v>67763511.099999994</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D238" s="4">
         <v>2017</v>
@@ -18709,7 +18708,7 @@
         <v>7.83</v>
       </c>
       <c r="K238" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L238" s="4">
         <v>7</v>
@@ -18762,7 +18761,7 @@
         <v>18745439.170000002</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D239" s="4">
         <v>2017</v>
@@ -18786,7 +18785,7 @@
         <v>7.27</v>
       </c>
       <c r="K239" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L239" s="4">
         <v>8</v>
@@ -18839,7 +18838,7 @@
         <v>17228784.039999999</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D240" s="4">
         <v>2017</v>
@@ -18863,7 +18862,7 @@
         <v>7.24</v>
       </c>
       <c r="K240" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L240" s="4">
         <v>9</v>
@@ -18916,7 +18915,7 @@
         <v>61665747.390000001</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D241" s="4">
         <v>2017</v>
@@ -18940,7 +18939,7 @@
         <v>7.79</v>
       </c>
       <c r="K241" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L241" s="4">
         <v>10</v>
@@ -18993,7 +18992,7 @@
         <v>110925701.84</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D242" s="4">
         <v>2018</v>
@@ -19017,7 +19016,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="K242" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L242" s="4">
         <v>1</v>
@@ -19070,7 +19069,7 @@
         <v>97706857.560000002</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D243" s="4">
         <v>2018</v>
@@ -19094,7 +19093,7 @@
         <v>7.99</v>
       </c>
       <c r="K243" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L243" s="4">
         <v>2</v>
@@ -19147,7 +19146,7 @@
         <v>46422149.93</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D244" s="4">
         <v>2018</v>
@@ -19171,7 +19170,7 @@
         <v>7.67</v>
       </c>
       <c r="K244" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L244" s="4">
         <v>3</v>
@@ -19224,7 +19223,7 @@
         <v>27145169.5</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D245" s="4">
         <v>2018</v>
@@ -19248,7 +19247,7 @@
         <v>7.43</v>
       </c>
       <c r="K245" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L245" s="4">
         <v>4</v>
@@ -19301,7 +19300,7 @@
         <v>22761626.239999998</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D246" s="4">
         <v>2018</v>
@@ -19325,7 +19324,7 @@
         <v>7.36</v>
       </c>
       <c r="K246" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L246" s="4">
         <v>5</v>
@@ -19378,7 +19377,7 @@
         <v>26943521.84</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D247" s="4">
         <v>2018</v>
@@ -19402,7 +19401,7 @@
         <v>7.43</v>
       </c>
       <c r="K247" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L247" s="4">
         <v>6</v>
@@ -19447,7 +19446,7 @@
       <c r="AN247" s="3"/>
       <c r="AO247" s="3"/>
     </row>
-    <row r="248" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5">
         <v>31444820.289999999</v>
       </c>
@@ -19455,7 +19454,7 @@
         <v>71413493.980000004</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D248" s="4">
         <v>2018</v>
@@ -19479,7 +19478,7 @@
         <v>7.85</v>
       </c>
       <c r="K248" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L248" s="4">
         <v>7</v>
@@ -19532,7 +19531,7 @@
         <v>19362633.530000001</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D249" s="4">
         <v>2018</v>
@@ -19556,7 +19555,7 @@
         <v>7.29</v>
       </c>
       <c r="K249" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L249" s="4">
         <v>8</v>
@@ -19609,7 +19608,7 @@
         <v>18006130.620000001</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D250" s="4">
         <v>2018</v>
@@ -19633,7 +19632,7 @@
         <v>7.26</v>
       </c>
       <c r="K250" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L250" s="4">
         <v>9</v>
@@ -19686,7 +19685,7 @@
         <v>63427502.43</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D251" s="4">
         <v>2018</v>
@@ -19710,7 +19709,7 @@
         <v>7.8</v>
       </c>
       <c r="K251" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L251" s="4">
         <v>10</v>
@@ -19763,7 +19762,7 @@
         <v>110304054.13</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D252" s="4">
         <v>2019</v>
@@ -19787,7 +19786,7 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="K252" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L252" s="4">
         <v>1</v>
@@ -19840,7 +19839,7 @@
         <v>92455332.159999996</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D253" s="4">
         <v>2019</v>
@@ -19864,7 +19863,7 @@
         <v>7.97</v>
       </c>
       <c r="K253" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L253" s="4">
         <v>2</v>
@@ -19917,7 +19916,7 @@
         <v>43514871.950000003</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D254" s="4">
         <v>2019</v>
@@ -19941,7 +19940,7 @@
         <v>7.64</v>
       </c>
       <c r="K254" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L254" s="4">
         <v>3</v>
@@ -19994,7 +19993,7 @@
         <v>27018853.309999999</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D255" s="4">
         <v>2019</v>
@@ -20018,7 +20017,7 @@
         <v>7.43</v>
       </c>
       <c r="K255" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L255" s="4">
         <v>4</v>
@@ -20071,7 +20070,7 @@
         <v>22880164.219999999</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D256" s="4">
         <v>2019</v>
@@ -20095,7 +20094,7 @@
         <v>7.36</v>
       </c>
       <c r="K256" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L256" s="4">
         <v>5</v>
@@ -20148,7 +20147,7 @@
         <v>24408421.91</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D257" s="4">
         <v>2019</v>
@@ -20172,7 +20171,7 @@
         <v>7.39</v>
       </c>
       <c r="K257" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L257" s="4">
         <v>6</v>
@@ -20217,7 +20216,7 @@
       <c r="AN257" s="3"/>
       <c r="AO257" s="3"/>
     </row>
-    <row r="258" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:41" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5">
         <v>31753561.359999999</v>
       </c>
@@ -20225,7 +20224,7 @@
         <v>69009724.359999999</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D258" s="4">
         <v>2019</v>
@@ -20249,7 +20248,7 @@
         <v>7.84</v>
       </c>
       <c r="K258" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L258" s="4">
         <v>7</v>
@@ -20302,7 +20301,7 @@
         <v>17206319.859999999</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D259" s="4">
         <v>2019</v>
@@ -20326,7 +20325,7 @@
         <v>7.24</v>
       </c>
       <c r="K259" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L259" s="4">
         <v>8</v>
@@ -20379,7 +20378,7 @@
         <v>16973295.66</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D260" s="4">
         <v>2019</v>
@@ -20403,7 +20402,7 @@
         <v>7.23</v>
       </c>
       <c r="K260" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L260" s="4">
         <v>9</v>
@@ -20456,7 +20455,7 @@
         <v>62876854.350000001</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D261" s="4">
         <v>2019</v>
@@ -20480,7 +20479,7 @@
         <v>7.8</v>
       </c>
       <c r="K261" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L261" s="4">
         <v>10</v>
